--- a/CoreRulebook/Data/darkarts.xlsx
+++ b/CoreRulebook/Data/darkarts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">Power Dependent</t>
   </si>
   <si>
-    <t xml:space="preserve">Gouges at the target, leaving deep, cursed wounds, for 1d6 points of slashing damage, plus two for every power point dedicated to the spell.</t>
+    <t xml:space="preserve">Gouges at the target, leaving deep, cursed wounds, for 1d6 points of slashing damage, plus two for every PP to the spell.</t>
   </si>
   <si>
     <r>
@@ -232,7 +232,7 @@
   <si>
     <t xml:space="preserve">Causes immense pain to the target, paralysing them whilst the spell is cast. 
 Once successfully cast, this spell can be continuously maintained until the caster stops, but caster cannot perform other actions whilst the spell is maintained.  
-Does 1 point of psychic damage per power point added. </t>
+Does 1 point of psychic damage per PP. </t>
   </si>
   <si>
     <r>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t xml:space="preserve">Summon a true Void, a gap in the fabric of reality that sucks in everything nearby. 
-Lasts for 1 turn, plus 1 extra turn for every power point dedicated to the spell.</t>
+Lasts for 1 turn, plus 1 extra turn per PP.</t>
   </si>
   <si>
     <r>
@@ -347,7 +347,7 @@
   </si>
   <si>
     <t xml:space="preserve">Bring the very shadows to life: a being of pure darkness will stalk your enemies, attacking them whenever they stray near the shadows, doing 1d10 worth of necrotic damage. 
-Last 3 turns + 1 for every power point dedicated to the spell.</t>
+Last 3 turns + 1 for every PP.</t>
   </si>
   <si>
     <r>
@@ -420,7 +420,7 @@
     <t xml:space="preserve">CHR \\ (persuasion)</t>
   </si>
   <si>
-    <t xml:space="preserve">If the target fails a resist magic check, the target is placed under the complete control of the caster for 1 turn + 1 turn for every power point dedicated to the spell. </t>
+    <t xml:space="preserve">If the target fails a resist magic check, the target is placed under the complete control of the caster for 1 turn + 1 turn for every PP.</t>
   </si>
   <si>
     <r>
@@ -485,7 +485,7 @@
   <si>
     <t xml:space="preserve">Open a portal to the depths of hell, where the Demons of the Deep reside. 
 For every turn that the portal remains open, it casts random Dark Magic at all targets outside a 2m radius of the caster. These spells increase in power as the portal remains open. 
-The portal stays open for 2 turns, plus one turn for every power point dedicated to the spell. </t>
+The portal stays open for 2 turns, plus one turn per PP.</t>
   </si>
   <si>
     <r>
@@ -573,16 +573,22 @@
     <t xml:space="preserve">EVL </t>
   </si>
   <si>
-    <t xml:space="preserve">Extinguish all light within a 10m radius (+2 for every power point dedicated to the spell)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necrotic curse \\ {carnes mortis}</t>
+    <t xml:space="preserve">Extinguish all light within a 10m radius (+2 for every PP to the spell)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necrotic curse \\ {\it carnes mortis}</t>
   </si>
   <si>
     <t xml:space="preserve">POW \\ (chaos)</t>
   </si>
   <si>
     <t xml:space="preserve">Do 1 necrotic damage and 1 poison damage for every point over the casting check. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blight \\ {\it thanatos}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wave of necrotic energy extends outwards from you in a radius of 10m (doubled with every PP, max 1km). All plants within range die instantly, and all other living beings take 1d4 necrotic damage (+1 per PP)</t>
   </si>
 </sst>
 </file>
@@ -616,8 +622,8 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Century Schoolbook"/>
-      <family val="1"/>
+      <name val="Abyssinica SIL"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -717,8 +723,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -726,46 +736,50 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -835,49 +849,49 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="137.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="137.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -890,17 +904,17 @@
       <c r="D2" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -913,17 +927,17 @@
       <c r="D3" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -936,17 +950,17 @@
       <c r="D4" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -959,17 +973,17 @@
       <c r="D5" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -982,17 +996,17 @@
       <c r="D6" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
@@ -1005,17 +1019,17 @@
       <c r="D7" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1028,18 +1042,18 @@
       <c r="D8" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1051,17 +1065,17 @@
       <c r="D9" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
@@ -1074,17 +1088,17 @@
       <c r="D10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
@@ -1097,17 +1111,17 @@
       <c r="D11" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
@@ -1120,17 +1134,17 @@
       <c r="D12" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -1143,17 +1157,17 @@
       <c r="D13" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -1166,17 +1180,17 @@
       <c r="D14" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
@@ -1186,20 +1200,20 @@
       <c r="C15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1212,83 +1226,106 @@
       <c r="D16" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+    <row r="17" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="G17" s="9" t="s">
+      <c r="F17" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+    <row r="18" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/darkarts.xlsx
+++ b/CoreRulebook/Data/darkarts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -43,14 +43,29 @@
     <t xml:space="preserve">Effect</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Shadow Blast \\ {\it  </t>
+    <t xml:space="preserve">Blight \\ {\it thanatos}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Dependent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Beginner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A wave of necrotic energy extends outwards from you in a radius of 10m (doubled with every PP, max 1km). All plants within range die instantly, and all other living beings take 1d4 necrotic damage (+1 per PP)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Eldritch Knowledge Spell  \\ {\it  </t>
     </r>
     <r>
       <rPr>
@@ -60,7 +75,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">malusangui</t>
+      <t xml:space="preserve">vetitum scenticus</t>
     </r>
     <r>
       <rPr>
@@ -74,45 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">Effect Only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Beginner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hurl shadows at you enemy, dealing 1 necrotic damage for every casting point over the difficulty level. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Eldritch Knowledge Spell  \\ {\it  </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="8"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">vetitum scenticus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">}</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">EVL</t>
@@ -129,6 +105,48 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">Shadow Blast \\ {\it  </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="8"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">malusangui</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">POW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurl shadows at you enemy, dealing 1 necrotic damage for every casting point over the difficulty level. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shroud of Darkness \\ {\it tenebrosa}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extinguish all light within a 10m radius (+2 for every PP to the spell)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Century Schoolbook"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Slashing Curse \\ {\it  </t>
     </r>
     <r>
@@ -152,12 +170,21 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Power Dependent</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gouges at the target, leaving deep, cursed wounds, for 1d6 points of slashing damage, plus two for every PP to the spell.</t>
   </si>
   <si>
+    <t xml:space="preserve">Dark Healing \\ {\it tenebrosa sudarium}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2: Novice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If in shadow, heal for one HP for each casting point over the difficulty. Remove half of this HP from an ally.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -186,9 +213,6 @@
       </rPr>
       <t xml:space="preserve">}</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2: Novice</t>
   </si>
   <si>
     <t xml:space="preserve">CHR \\ (intimidation)</t>
@@ -350,6 +374,15 @@
 Last 3 turns + 1 for every PP.</t>
   </si>
   <si>
+    <t xml:space="preserve">Necrotic curse \\ {\it carnes mortis}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POW \\ (chaos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do 1 necrotic damage and 1 poison damage for every point over the casting check. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -558,37 +591,10 @@
 Only one soul may be trapped at any given, and no power points may be dedicated to the instant-casting. </t>
   </si>
   <si>
-    <t xml:space="preserve">Dark Healing \\ {\it tenebrosa sudarium}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POW </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If in shadow, heal for one HP for each casting point over the difficulty. Remove half of this HP from an ally.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shroud of Darkness \\ {\it tenebrosa}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extinguish all light within a 10m radius (+2 for every PP to the spell)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necrotic curse \\ {\it carnes mortis}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POW \\ (chaos)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do 1 necrotic damage and 1 poison damage for every point over the casting check. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blight \\ {\it thanatos}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A wave of necrotic energy extends outwards from you in a radius of 10m (doubled with every PP, max 1km). All plants within range die instantly, and all other living beings take 1d4 necrotic damage (+1 per PP)</t>
+    <t xml:space="preserve">Contagion Curse \\ {\it vastantes}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If target fails a Resist (health) check against the casting check, contracts a disease. All positive modifiers and proficiency bonuses are set to zero until cured. Disease is contagious and each time they touch an afflicted individual, being must Resist, or contract the disease also.</t>
   </si>
 </sst>
 </file>
@@ -622,8 +628,8 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Abyssinica SIL"/>
-      <family val="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -723,32 +729,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -756,20 +754,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -849,14 +839,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -891,26 +881,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -919,7 +909,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -928,225 +918,225 @@
         <v>6</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>14</v>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F5" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="D7" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="F8" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+    <row r="9" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="G9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="F10" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="G12" s="6" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>8</v>
@@ -1155,65 +1145,65 @@
         <v>36</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G14" s="7" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="37.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="8" t="n">
-        <v>25</v>
+      <c r="D15" s="4" t="n">
+        <v>5</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1221,111 +1211,134 @@
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D16" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F19" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="10" t="n">
+      <c r="G20" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="19.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="10" t="n">
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>61</v>
+      <c r="G21" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/darkarts.xlsx
+++ b/CoreRulebook/Data/darkarts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -170,19 +170,31 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Gouges at the target, leaving deep, cursed wounds, for 1d6 points of slashing damage, plus two for every PP to the spell.</t>
+    <t xml:space="preserve">Gouges at the target, leaving deep, cursed wounds, for 1d6 points of slashing damage, plus two for every PP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contagion Curse \\ {\it vastantes}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2: Novice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If target fails a Resist (health) check against the casting check, contracts a disease. All positive modifiers and proficiency bonuses are set to zero until cured. Disease is contagious and each time they touch an afflicted individual, being must Resist, or contract the disease also.</t>
   </si>
   <si>
     <t xml:space="preserve">Dark Healing \\ {\it tenebrosa sudarium}</t>
   </si>
   <si>
-    <t xml:space="preserve">2: Novice</t>
-  </si>
-  <si>
     <t xml:space="preserve">POW </t>
   </si>
   <si>
-    <t xml:space="preserve">If in shadow, heal for one HP for each casting point over the difficulty. Remove half of this HP from an ally.</t>
+    <t xml:space="preserve">Heal for one HP for each casting point over the difficulty. Remove half of this HP from an ally.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insect Plague \\ {\it prorepere}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summon a swarm of insects from the ground. Insect plague covers area of 2m radius. All targets in radius must perform an evasion check, or take 1d4 poison damage and 1d4 piercing damage for 4 turns. </t>
   </si>
   <si>
     <r>
@@ -293,6 +305,18 @@
 Lasts for 1 turn, plus 1 extra turn per PP.</t>
   </si>
   <si>
+    <t xml:space="preserve">Abyssal Fluid \\ {\it sucus infernum}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3: Adept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVL \\ (chaos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A jet of inky black fluid emerges from the end of your wand, reaching up to 5m away. All targets touched by the fluid take 1d4 acid damage per CV over the DV. </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="8"/>
@@ -321,9 +345,6 @@
       </rPr>
       <t xml:space="preserve">}</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">3: Adept</t>
   </si>
   <si>
     <t xml:space="preserve">Summons a cursed fire that consumes everything that it touches.
@@ -416,7 +437,7 @@
     <t xml:space="preserve">4: Expert</t>
   </si>
   <si>
-    <t xml:space="preserve">Use blood to draw warding runes onto an object or person. Erects a magical with 4 strength, plus 1 for every casting point over the difficulty.
+    <t xml:space="preserve">Use blood to draw warding runes onto an object or person. Erects a swirling red magical barrier with AC 10, plus 5 for every casting point over the difficulty. Barrier blocks all physical and magical damage and is immune to acid erosion, but is eroded by holy damage. 
 Each individual{\apos}s blood can only be used once for blood magic.  </t>
   </si>
   <si>
@@ -453,7 +474,7 @@
     <t xml:space="preserve">CHR \\ (persuasion)</t>
   </si>
   <si>
-    <t xml:space="preserve">If the target fails a resist magic check, the target is placed under the complete control of the caster for 1 turn + 1 turn for every PP.</t>
+    <t xml:space="preserve">If the target fails a resist magic check against the casting check, the target is placed under the complete control of the caster for 3 turns + 1 turn for every PP.</t>
   </si>
   <si>
     <r>
@@ -486,7 +507,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Breathes unlife into dead bodies, and turns them into ghastly puppets, performing your every whim: the inferi. </t>
+    <t xml:space="preserve">Breathes unlife into dead bodies, and turns them into ghastly puppets, performing your every whim: the inferi. Inferi act as golems, obeying every word of their creator. </t>
   </si>
   <si>
     <r>
@@ -511,9 +532,6 @@
   </si>
   <si>
     <t xml:space="preserve">5: Master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVL \\ (chaos)</t>
   </si>
   <si>
     <t xml:space="preserve">Open a portal to the depths of hell, where the Demons of the Deep reside. 
@@ -589,12 +607,6 @@
     <t xml:space="preserve">Capture the soul of a recently killed enemy. 
 This soul may be used to instantly cast any other spell without a casting check or fortitude cost, or alternatively; absorbed to heal the character to full health and fortitude. 
 Only one soul may be trapped at any given, and no power points may be dedicated to the instant-casting. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contagion Curse \\ {\it vastantes}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If target fails a Resist (health) check against the casting check, contracts a disease. All positive modifiers and proficiency bonuses are set to zero until cured. Disease is contagious and each time they touch an afflicted individual, being must Resist, or contract the disease also.</t>
   </si>
 </sst>
 </file>
@@ -839,14 +851,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -921,7 +933,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
@@ -944,7 +956,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>18</v>
@@ -967,7 +979,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>20</v>
@@ -990,355 +1002,401 @@
         <v>17</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="E8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="F8" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>34</v>
+        <v>6</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="F11" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="G14" s="1" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="22.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="25.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="G16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="E16" s="5" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="F17" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E18" s="5" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="F19" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G19" s="5" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>25</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F22" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="F20" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="E23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>63</v>
+      <c r="F23" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/darkarts.xlsx
+++ b/CoreRulebook/Data/darkarts.xlsx
@@ -230,7 +230,7 @@
     <t xml:space="preserve">CHR \\ (intimidation)</t>
   </si>
   <si>
-    <t xml:space="preserve">Target performs a 1d10 SPR (endurance) check, if the check is less than the casting check, the target acquires the {\it Terrified} status.</t>
+    <t xml:space="preserve">Target performs a SPR (endurance) Resist check, if the check is less than the casting check, the target acquires the {\it Terrified} status.</t>
   </si>
   <si>
     <r>
@@ -858,7 +858,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1077,7 +1077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="33.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>

--- a/CoreRulebook/Data/darkarts.xlsx
+++ b/CoreRulebook/Data/darkarts.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B73E3E-4651-447C-BC17-5248738322AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,54 +25,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="109">
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incantation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficulty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HigherLevel</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Incantation</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Fortitude</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Proficiency</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>HigherLevel</t>
   </si>
   <si>
     <t xml:space="preserve">Blight </t>
   </si>
   <si>
-    <t xml:space="preserve">thanatos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instant</t>
+    <t>thanatos</t>
+  </si>
+  <si>
+    <t>Instant</t>
   </si>
   <si>
     <t xml:space="preserve">EVL </t>
   </si>
   <si>
-    <t xml:space="preserve">A cylinder of necrotic energy extends outwards from you in a radius of 10m (doubled with every PP, max 1km). All simple plants within range die instantly, and all other living beings take 1d4 necrotic damage (+1 per PP)</t>
+    <t>A cylinder of necrotic energy extends outwards from you in a radius of 10m (doubled with every PP, max 1km). All simple plants within range die instantly, and all other living beings take 1d4 necrotic damage (+1 per PP)</t>
   </si>
   <si>
     <r>
@@ -77,7 +82,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">An adept level caster may add an extra d4 of damage for every 4 character levels above 2</t>
+      <t>An adept level caster may add an extra d4 of damage for every 4 character levels above 2</t>
     </r>
     <r>
       <rPr>
@@ -87,36 +92,36 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">nd.</t>
+      <t>nd.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Eldritch Knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vetitum scenticus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (3 turns)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arcane</t>
+    <t>Eldritch Knowledge</t>
+  </si>
+  <si>
+    <t>vetitum scenticus</t>
+  </si>
+  <si>
+    <t>Ritual (3 turns)</t>
+  </si>
+  <si>
+    <t>EVL</t>
+  </si>
+  <si>
+    <t>Arcane</t>
   </si>
   <si>
     <t xml:space="preserve">Gain access to eldritch knowledge. The Demons of the Deep will answer one of your questions, but the answers might drive you mad.
 The question must be said out loud for all to hear, but the answer may be written down and passed to your privately. </t>
   </si>
   <si>
-    <t xml:space="preserve">Shadow Blast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malusangui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POW</t>
+    <t>Shadow Blast</t>
+  </si>
+  <si>
+    <t>malusangui</t>
+  </si>
+  <si>
+    <t>POW</t>
   </si>
   <si>
     <t xml:space="preserve">Hurl shadows at you enemy, dealing 1 necrotic damage for every casting point over the difficulty level. </t>
@@ -125,25 +130,25 @@
     <t xml:space="preserve">An novice-level caster does 2 extra points for each point that the CV exceeds the DV, and an Expert-level caster does 4 extra. </t>
   </si>
   <si>
-    <t xml:space="preserve">Shroud of Darkness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tenebrosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extinguish all light within a (10 + 2$\times$PP) metre radius, and all attempts to create new light fail, unless caster\apos{} passive POW check exceds the casting check.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vicious Slash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sectumsempra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gouges at the target, leaving deep, cursed wounds, for 1d6 points of slashing damage.</t>
+    <t>Shroud of Darkness</t>
+  </si>
+  <si>
+    <t>tenebrosa</t>
+  </si>
+  <si>
+    <t>2 minutes</t>
+  </si>
+  <si>
+    <t>Extinguish all light within a (10 + 2$\times$PP) metre radius, and all attempts to create new light fail, unless caster\apos{} passive POW check exceds the casting check.</t>
+  </si>
+  <si>
+    <t>Vicious Slash</t>
+  </si>
+  <si>
+    <t>sectumsempra</t>
+  </si>
+  <si>
+    <t>Gouges at the target, leaving deep, cursed wounds, for 1d6 points of slashing damage.</t>
   </si>
   <si>
     <r>
@@ -153,7 +158,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">At 8</t>
+      <t>At 8</t>
     </r>
     <r>
       <rPr>
@@ -163,7 +168,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -182,7 +187,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -191,7 +196,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, use 4d6, and at 20</t>
+      <t>, use 4d6, and at 20</t>
     </r>
     <r>
       <rPr>
@@ -201,7 +206,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -214,25 +219,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Contagion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vastantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If target fails an ATH (health) Resist check against the casting check, contracts a disease. All positive modifiers and proficiency bonuses are set to zero until cured. Disease is contagious and each time they touch an afflicted individual, being must Resist, or contract the disease also.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When cast by an Expert-level caster, all positive bonuses etc. are set to -2 for the duration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dark Healing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tenebrosa sudarium</t>
+    <t>Contagion</t>
+  </si>
+  <si>
+    <t>vastantes</t>
+  </si>
+  <si>
+    <t>2 weeks</t>
+  </si>
+  <si>
+    <t>If target fails an ATH (health) Resist check against the casting check, contracts a disease. All positive modifiers and proficiency bonuses are set to zero until cured. Disease is contagious and each time they touch an afflicted individual, being must Resist, or contract the disease also.</t>
+  </si>
+  <si>
+    <t>When cast by an Expert-level caster, all positive bonuses etc. are set to -2 for the duration.</t>
+  </si>
+  <si>
+    <t>Dark Healing</t>
+  </si>
+  <si>
+    <t>tenebrosa sudarium</t>
   </si>
   <si>
     <t xml:space="preserve">POW </t>
@@ -241,151 +246,148 @@
     <t xml:space="preserve">Heal for one HP for each casting point over the difficulty. Remove half of the restored HP from an ally. </t>
   </si>
   <si>
-    <t xml:space="preserve">Incomprehensible Torture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crucio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaos</t>
+    <t>Incomprehensible Torture</t>
+  </si>
+  <si>
+    <t>Crucio</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Chaos</t>
   </si>
   <si>
     <t xml:space="preserve">Causes immense pain to the target, paralysing them whilst the spell is cast. 
 Does (PP)d4 psychic damage per turn. </t>
   </si>
   <si>
-    <t xml:space="preserve">When cast by an expert-level caster, act as if 5 PP have been donated during the attack-roll phase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instil Terror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intimidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target performs a SPR (endurance) Resist check, if the check is less than the casting check, the target acquires the {\it Terrified} status.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necrosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carnes mortis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do 1d4 necrotic damage and 1d4 poison damage \cvdv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plague of Insects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prorepere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summon a swarm of insects from the ground. Insect plague covers area of 2m radius, doubling with each PP (max 32 metres). All targets in radius must perform an evasion check, or take 1d4 poison damage and 1d4 piercing damage until they escape the area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summon Void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inanis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 minute</t>
+    <t>When cast by an expert-level caster, act as if 5 PP have been donated during the attack-roll phase</t>
+  </si>
+  <si>
+    <t>Instil Terror</t>
+  </si>
+  <si>
+    <t>timeant</t>
+  </si>
+  <si>
+    <t>4 minutes</t>
+  </si>
+  <si>
+    <t>CHR</t>
+  </si>
+  <si>
+    <t>Intimidation</t>
+  </si>
+  <si>
+    <t>Target performs a SPR (endurance) Resist check, if the check is less than the casting check, the target acquires the {\it Terrified} status.</t>
+  </si>
+  <si>
+    <t>Necrosis</t>
+  </si>
+  <si>
+    <t>carnes mortis</t>
+  </si>
+  <si>
+    <t>Plague of Insects</t>
+  </si>
+  <si>
+    <t>prorepere</t>
+  </si>
+  <si>
+    <t>5 minutes</t>
+  </si>
+  <si>
+    <t>Summon a swarm of insects from the ground. Insect plague covers area of 2m radius, doubling with each PP (max 32 metres). All targets in radius must perform an evasion check, or take 1d4 poison damage and 1d4 piercing damage until they escape the area.</t>
+  </si>
+  <si>
+    <t>Summon Void</t>
+  </si>
+  <si>
+    <t>inanis</t>
+  </si>
+  <si>
+    <t>1 minute</t>
   </si>
   <si>
     <t xml:space="preserve">Summon a true Void, a gap in the fabric of reality that attracts all objects within a 5m radius. Everything in radius must perform an ATH(Strength) Resist against the casting check to grab onto something. </t>
   </si>
   <si>
-    <t xml:space="preserve">Abyssal Fluid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sucus infernum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 turns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pencil-thin jet of inky black fluid emerges from the end of your wand for as long as concentration is maintained, reaching up to 5m away. All targets touched by the fluid take 2d4 acid damage for 2 turns.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A master-level caster may expand the jet into a cone, and add an extra 2d4 to the damage check for every three character levels over level 10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiendfyre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyrkagius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 hour</t>
+    <t>Abyssal Fluid</t>
+  </si>
+  <si>
+    <t>sucus infernum</t>
+  </si>
+  <si>
+    <t>2 turns</t>
+  </si>
+  <si>
+    <t>A pencil-thin jet of inky black fluid emerges from the end of your wand for as long as concentration is maintained, reaching up to 5m away. All targets touched by the fluid take 2d4 acid damage for 2 turns.</t>
+  </si>
+  <si>
+    <t>A master-level caster may expand the jet into a cone, and add an extra 2d4 to the damage check for every three character levels over level 10.</t>
+  </si>
+  <si>
+    <t>Fiendfyre</t>
+  </si>
+  <si>
+    <t>pyrkagius</t>
+  </si>
+  <si>
+    <t>1 hour</t>
   </si>
   <si>
     <t xml:space="preserve">Summons a cursed fire that consumes everything that it touches, does 1d8 fire damage to all it touches, and will actively seek out targets. 
 Attempts to extinguish the fiendfyre must defeat a SPR Resist check against the casting check </t>
   </si>
   <si>
-    <t xml:space="preserve">When cast by a Master-level caster, fiendfyre does 2d8 extra fire damage, and extinguishing checks take a 2-point penalty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summon Living Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viven umbrafors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3+PP) turns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bring the very shadows to life: a being of pure darkness will stalk your enemies, attacking them whenever they stray near the shadows, doing (1+PP)d10 worth of necrotic damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood Barrier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confusangui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (8 turns)</t>
+    <t>When cast by a Master-level caster, fiendfyre does 2d8 extra fire damage, and extinguishing checks take a 2-point penalty.</t>
+  </si>
+  <si>
+    <t>Summon Living Shadow</t>
+  </si>
+  <si>
+    <t>viven umbrafors</t>
+  </si>
+  <si>
+    <t>(3+PP) turns</t>
+  </si>
+  <si>
+    <t>Bring the very shadows to life: a being of pure darkness will stalk your enemies, attacking them whenever they stray near the shadows, doing (1+PP)d10 worth of necrotic damage.</t>
+  </si>
+  <si>
+    <t>Blood Barrier</t>
+  </si>
+  <si>
+    <t>confusangui</t>
+  </si>
+  <si>
+    <t>Ritual (8 turns)</t>
   </si>
   <si>
     <t xml:space="preserve">Use blood to draw warding runes onto an object or person. Erects a swirling red magical barrier with AC 10, plus 5 for every casting point over the difficulty. Barrier blocks all physical and magical damage and is immune to acid erosion, but is eroded by holy damage. 
 Each individual{\apos}s blood can only be used once for blood magic.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Create Thrall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imperius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persuasion</t>
+    <t>Create Thrall</t>
+  </si>
+  <si>
+    <t>Imperius</t>
+  </si>
+  <si>
+    <t>Persuasion</t>
   </si>
   <si>
     <t xml:space="preserve">If the target fails a resist magic check against the casting check, the target is placed under the complete control of the caster until concentration is broken. </t>
   </si>
   <si>
-    <t xml:space="preserve">Create Zombie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inferi exorior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (5 minutes)</t>
+    <t>Create Zombie</t>
+  </si>
+  <si>
+    <t>inferi exorior</t>
+  </si>
+  <si>
+    <t>Ritual (5 minutes)</t>
   </si>
   <si>
     <t xml:space="preserve">Breathes unlife into dead bodies, and turns them into ghastly puppets, performing your every whim: the inferi. Inferi act as golems, obeying every word of their creator. </t>
@@ -398,7 +400,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">When cast by a Master-level caster greater than 15</t>
+      <t>When cast by a Master-level caster greater than 15</t>
     </r>
     <r>
       <rPr>
@@ -408,7 +410,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -421,81 +423,77 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Chaos Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chaomal portis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2+PP) turns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open a portal to the depths of hell, where the Demons of the Deep reside. 
-For every turn that the portal remains open, it casts random Dark Magic at all targets outside a 2m radius of the caster. These spells increase in power as the portal remains open.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Horcrux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pervinco mortis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (1 day)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The caster places a portion of their soul into another object. Write down the horcrux on a piece of paper and keep it hidden. 
+    <t>Chaos Magic</t>
+  </si>
+  <si>
+    <t>chaomal portis</t>
+  </si>
+  <si>
+    <t>(2+PP) turns</t>
+  </si>
+  <si>
+    <t>Create Horcrux</t>
+  </si>
+  <si>
+    <t>pervinco mortis</t>
+  </si>
+  <si>
+    <t>Ritual (1 day)</t>
+  </si>
+  <si>
+    <t>The caster places a portion of their soul into another object. Write down the horcrux on a piece of paper and keep it hidden. 
 Whilst a horcrux exists, the character cannot be killed, however creating a Horcrux reduces all casting checks by 2 for each horcrux that is created.  
 Can only be cast if the caster has murdered an innocent in cold blood.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kill Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avada kedavra</t>
+    <t>Kill Target</t>
+  </si>
+  <si>
+    <t>avada kedavra</t>
   </si>
   <si>
     <t xml:space="preserve">If the spell makes contact with the target, kills them instantly. There is no countercurse. </t>
   </si>
   <si>
-    <t xml:space="preserve">Soul Snare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nerco decipula</t>
+    <t>Soul Snare</t>
+  </si>
+  <si>
+    <t>nerco decipula</t>
   </si>
   <si>
     <t xml:space="preserve">Capture the soul of a recently killed enemy. 
 This soul may be used to instantly cast any other spell without a casting check or fortitude cost, or alternatively; absorbed to heal the character to full health and fortitude. 
 Only one soul may be trapped at any given, and no power points may be dedicated to the instant-casting. </t>
+  </si>
+  <si>
+    <t>Universal Tear</t>
+  </si>
+  <si>
+    <t>Ritual (1 week)</t>
+  </si>
+  <si>
+    <t>ostium</t>
+  </si>
+  <si>
+    <t>Open a small portal to Pand{\ae}monium, the Chaos Realm. For every turn that the portal remains open, it casts random Dark Magic at all targets outside a 2m radius of the caster. These spells increase in power as the portal remains open.</t>
+  </si>
+  <si>
+    <t>Do 1d4 necrotic damage plus an additional 1d4 \cvdv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punch a hole in the fabric of reality, and establish a portal to one of the Higher Planes. This portal takes the form of a shimmering door. Stepping through the door takes you to the chosen Plane. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -520,14 +518,14 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -542,7 +540,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -557,7 +555,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -569,93 +567,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -714,39 +670,346 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J7" activeCellId="0" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="27.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="92.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="36.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="8.71"/>
+    <col min="1" max="2" width="28" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="8.7109375" style="1"/>
+    <col min="8" max="8" width="9.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="1"/>
+    <col min="10" max="10" width="92.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" style="1" customWidth="1"/>
+    <col min="12" max="1025" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -781,7 +1044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -791,20 +1054,20 @@
       <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="5">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="5">
         <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="5">
         <v>5</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -814,7 +1077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -824,13 +1087,13 @@
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="8">
         <v>6</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -839,14 +1102,14 @@
       <c r="H3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="8">
         <v>3</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
@@ -856,20 +1119,20 @@
       <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="8">
         <v>0</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="8">
         <v>1</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="8">
         <v>3</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="8">
         <v>2</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -879,7 +1142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
@@ -892,24 +1155,24 @@
       <c r="D5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="10">
         <v>4</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="9"/>
-      <c r="I5" s="10" t="n">
+      <c r="I5" s="10">
         <v>4</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
@@ -919,20 +1182,20 @@
       <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="10">
         <v>0</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="8">
         <v>1</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="8">
         <v>4</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="8">
         <v>4</v>
       </c>
       <c r="J6" s="7" t="s">
@@ -942,7 +1205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -955,17 +1218,17 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="5">
         <v>2</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="5">
         <v>6</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="5">
         <v>6</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -975,7 +1238,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>41</v>
       </c>
@@ -985,27 +1248,27 @@
       <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="10">
         <v>0</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="10">
         <v>2</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="10">
         <v>6</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="10" t="n">
+      <c r="I8" s="10">
         <v>5</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>45</v>
       </c>
@@ -1015,13 +1278,13 @@
       <c r="C9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="10">
         <v>0</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="12">
         <v>2</v>
       </c>
-      <c r="F9" s="12" t="n">
+      <c r="F9" s="12">
         <v>8</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -1030,7 +1293,7 @@
       <c r="H9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="12" t="n">
+      <c r="I9" s="12">
         <v>6</v>
       </c>
       <c r="J9" s="11" t="s">
@@ -1040,7 +1303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>51</v>
       </c>
@@ -1053,10 +1316,10 @@
       <c r="D10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="8">
         <v>2</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="8">
         <v>5</v>
       </c>
       <c r="G10" s="7" t="s">
@@ -1065,14 +1328,14 @@
       <c r="H10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="8">
         <v>6</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>57</v>
       </c>
@@ -1082,13 +1345,13 @@
       <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="8">
         <v>2</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="8">
         <v>6</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -1097,60 +1360,60 @@
       <c r="H11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="8">
         <v>7</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="22.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="8" t="n">
+        <v>61</v>
+      </c>
+      <c r="E12" s="8">
         <v>3</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="8">
         <v>4</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="8" t="n">
+      <c r="I12" s="8">
         <v>5</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="22.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="B13" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="12" t="n">
+        <v>65</v>
+      </c>
+      <c r="E13" s="12">
         <v>2</v>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="12">
         <v>8</v>
       </c>
       <c r="G13" s="11" t="s">
@@ -1159,30 +1422,30 @@
       <c r="H13" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="12" t="n">
+      <c r="I13" s="12">
         <v>7</v>
       </c>
       <c r="J13" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="22.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="8" t="n">
+        <v>69</v>
+      </c>
+      <c r="E14" s="8">
         <v>2</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="8">
         <v>3</v>
       </c>
       <c r="G14" s="8" t="s">
@@ -1191,66 +1454,66 @@
       <c r="H14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="8">
         <v>3</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="8" t="n">
+        <v>74</v>
+      </c>
+      <c r="E15" s="8">
         <v>3</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="8">
         <v>8</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="8">
         <v>8</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="22.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="8" t="n">
+        <v>79</v>
+      </c>
+      <c r="E16" s="8">
         <v>3</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="8">
         <v>8</v>
       </c>
       <c r="G16" s="7" t="s">
@@ -1259,125 +1522,125 @@
       <c r="H16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16" s="8">
         <v>9</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="B17" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="10">
         <v>0</v>
       </c>
-      <c r="E17" s="12" t="n">
+      <c r="E17" s="12">
         <v>4</v>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="F17" s="12">
         <v>5</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="12" t="n">
+      <c r="I17" s="12">
         <v>8</v>
       </c>
       <c r="J17" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="22.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="8">
         <v>0</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="8">
         <v>4</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="8">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>54</v>
       </c>
       <c r="H18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="8">
+        <v>9</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I18" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="J18" s="7" t="s">
+    </row>
+    <row r="19" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="22.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="8">
         <v>0</v>
       </c>
-      <c r="E19" s="8" t="n">
+      <c r="E19" s="8">
         <v>4</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="8">
         <v>10</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>54</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="8" t="n">
+      <c r="I19" s="8">
         <v>10</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="8" t="n">
+        <v>96</v>
+      </c>
+      <c r="E20" s="8">
         <v>5</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="8">
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -1386,108 +1649,139 @@
       <c r="H20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="8" t="n">
+      <c r="I20" s="8">
         <v>15</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="50.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="8">
         <v>0</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="8">
         <v>5</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="8">
         <v>25</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="8" t="n">
+      <c r="I21" s="8">
         <v>18</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="8" t="n">
+      <c r="D22" s="8">
         <v>0</v>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E22" s="8">
         <v>5</v>
       </c>
-      <c r="F22" s="8" t="n">
+      <c r="F22" s="8">
         <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="8" t="n">
+      <c r="I22" s="8">
         <v>10</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="41.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="8" t="n">
+      <c r="D23" s="8">
         <v>0</v>
       </c>
-      <c r="E23" s="8" t="n">
+      <c r="E23" s="8">
         <v>5</v>
       </c>
-      <c r="F23" s="8" t="n">
+      <c r="F23" s="8">
         <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="8" t="n">
+      <c r="I23" s="8">
         <v>15</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="24" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>20</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="1">
+        <v>15</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/CoreRulebook/Data/darkarts.xlsx
+++ b/CoreRulebook/Data/darkarts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B73E3E-4651-447C-BC17-5248738322AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9CD181-3207-429A-AA94-FBA875FE7516}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="125">
   <si>
     <t>Name</t>
   </si>
@@ -109,10 +109,6 @@
   </si>
   <si>
     <t>Arcane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain access to eldritch knowledge. The Demons of the Deep will answer one of your questions, but the answers might drive you mad.
-The question must be said out loud for all to hear, but the answer may be written down and passed to your privately. </t>
   </si>
   <si>
     <t>Shadow Blast</t>
@@ -310,9 +306,6 @@
     <t>1 minute</t>
   </si>
   <si>
-    <t xml:space="preserve">Summon a true Void, a gap in the fabric of reality that attracts all objects within a 5m radius. Everything in radius must perform an ATH(Strength) Resist against the casting check to grab onto something. </t>
-  </si>
-  <si>
     <t>Abyssal Fluid</t>
   </si>
   <si>
@@ -475,13 +468,56 @@
     <t>ostium</t>
   </si>
   <si>
-    <t>Open a small portal to Pand{\ae}monium, the Chaos Realm. For every turn that the portal remains open, it casts random Dark Magic at all targets outside a 2m radius of the caster. These spells increase in power as the portal remains open.</t>
-  </si>
-  <si>
     <t>Do 1d4 necrotic damage plus an additional 1d4 \cvdv</t>
   </si>
   <si>
     <t xml:space="preserve">Punch a hole in the fabric of reality, and establish a portal to one of the Higher Planes. This portal takes the form of a shimmering door. Stepping through the door takes you to the chosen Plane. </t>
+  </si>
+  <si>
+    <t>TravelType</t>
+  </si>
+  <si>
+    <t>Sickly-green shockwave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attune your mind to the Eldritch Domains. The Demons of the Deep will answer one of your questions, but the answers might drive you mad.
+The question must be said out loud for all to hear, but the answer may be written down and passed to your privately. </t>
+  </si>
+  <si>
+    <t>Yellow-black aura</t>
+  </si>
+  <si>
+    <t>Black bolt</t>
+  </si>
+  <si>
+    <t>Red slash</t>
+  </si>
+  <si>
+    <t>Sickly-green rays</t>
+  </si>
+  <si>
+    <t>Black rays</t>
+  </si>
+  <si>
+    <t>Sickly-green bolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summon a true Void anywhere within 15m of your current position, a gap in the fabric of reality that attracts all objects within a 5m radius. Everything in radius must perform an ATH(Strength) Resist against the casting check to grab onto something. </t>
+  </si>
+  <si>
+    <t>Black jet</t>
+  </si>
+  <si>
+    <t>Open a small portal to Pand{\ae}monium, the Chaos Realm at your current location. For every turn that the portal remains open, it casts random Dark Magic at all targets outside a 2m radius of the caster. These spells increase in power as the portal remains open.</t>
+  </si>
+  <si>
+    <t>Green bolt</t>
+  </si>
+  <si>
+    <t>Black aura</t>
+  </si>
+  <si>
+    <t>Searing white flash</t>
   </si>
 </sst>
 </file>
@@ -988,28 +1024,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK24"/>
+  <dimension ref="A1:AML24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="28" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.7109375" style="1"/>
-    <col min="8" max="8" width="9.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="1"/>
-    <col min="10" max="10" width="92.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="36.42578125" style="1" customWidth="1"/>
-    <col min="12" max="1025" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.7109375" style="1"/>
+    <col min="9" max="9" width="9.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="1"/>
+    <col min="11" max="11" width="92.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="36.42578125" style="1" customWidth="1"/>
+    <col min="13" max="1026" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1020,31 +1057,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1054,30 +1094,33 @@
       <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5">
         <v>5</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1087,695 +1130,737 @@
       <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="8">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="8">
         <v>3</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="8">
         <v>0</v>
       </c>
-      <c r="E4" s="8">
+      <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G4" s="8">
         <v>3</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
-        <v>2</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>4</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10">
+        <v>4</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10">
-        <v>4</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10">
-        <v>4</v>
-      </c>
-      <c r="J5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="E6" s="8">
+      <c r="F6" s="8">
         <v>1</v>
       </c>
-      <c r="F6" s="8">
+      <c r="G6" s="8">
         <v>4</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
+      <c r="H6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8">
         <v>4</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>6</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5">
+        <v>6</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="5">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5">
-        <v>6</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5">
-        <v>6</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="L7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="E8" s="10">
+      <c r="F8" s="10">
         <v>2</v>
       </c>
-      <c r="F8" s="10">
+      <c r="G8" s="10">
         <v>6</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10">
+        <v>5</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10">
-        <v>5</v>
-      </c>
-      <c r="J8" s="9" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="B9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12">
+        <v>8</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>2</v>
-      </c>
-      <c r="F9" s="12">
-        <v>8</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="J9" s="12">
+        <v>6</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="12">
-        <v>6</v>
-      </c>
-      <c r="J9" s="11" t="s">
+      <c r="L9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="8">
-        <v>2</v>
-      </c>
-      <c r="F10" s="8">
-        <v>5</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="J10" s="8">
+        <v>6</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="8">
-        <v>6</v>
-      </c>
-      <c r="J10" s="7" t="s">
+    </row>
+    <row r="11" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="8">
+      <c r="F11" s="8">
         <v>2</v>
       </c>
-      <c r="F11" s="8">
+      <c r="G11" s="8">
         <v>6</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="8">
+      <c r="H11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="8">
         <v>7</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="8">
+        <v>3</v>
+      </c>
+      <c r="G12" s="8">
+        <v>4</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8">
+        <v>5</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="8">
+    </row>
+    <row r="13" spans="1:12" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="12">
+        <v>2</v>
+      </c>
+      <c r="G13" s="12">
+        <v>8</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="12">
+        <v>7</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8">
         <v>3</v>
       </c>
-      <c r="F12" s="8">
-        <v>4</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8">
-        <v>5</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="I14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="12">
-        <v>2</v>
-      </c>
-      <c r="F13" s="12">
+      <c r="J14" s="8">
+        <v>3</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="8">
+        <v>3</v>
+      </c>
+      <c r="G15" s="8">
         <v>8</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="12">
-        <v>7</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="8">
-        <v>2</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="8">
-        <v>3</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="H15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8">
+        <v>8</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="L15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="8">
-        <v>3</v>
-      </c>
-      <c r="F15" s="8">
-        <v>8</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
-        <v>8</v>
-      </c>
-      <c r="J15" s="7" t="s">
+    </row>
+    <row r="16" spans="1:12" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="8">
+        <v>3</v>
+      </c>
+      <c r="G16" s="8">
+        <v>8</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="8">
+        <v>9</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="8">
-        <v>3</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="B17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>4</v>
+      </c>
+      <c r="G17" s="12">
+        <v>5</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12">
         <v>8</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="8">
+      <c r="K17" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>4</v>
+      </c>
+      <c r="G18" s="8">
+        <v>11</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="8">
         <v>9</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="10">
+      <c r="K18" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8">
         <v>0</v>
       </c>
-      <c r="E17" s="12">
+      <c r="F19" s="8">
         <v>4</v>
       </c>
-      <c r="F17" s="12">
-        <v>5</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12">
-        <v>8</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <v>4</v>
-      </c>
-      <c r="F18" s="8">
-        <v>11</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="8">
-        <v>9</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="G19" s="8">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8">
+        <v>10</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="L19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>4</v>
-      </c>
-      <c r="F19" s="8">
-        <v>10</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
-        <v>10</v>
-      </c>
-      <c r="J19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:12" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="B20" s="7" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="8">
+        <v>5</v>
+      </c>
+      <c r="G20" s="8">
+        <v>20</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="8">
+        <v>15</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="8">
+      <c r="C21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
         <v>5</v>
       </c>
-      <c r="F20" s="8">
+      <c r="G21" s="8">
+        <v>25</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="8">
-        <v>15</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="I21" s="7"/>
+      <c r="J21" s="8">
+        <v>18</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="8" t="s">
+    </row>
+    <row r="22" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>5</v>
-      </c>
-      <c r="F21" s="8">
-        <v>25</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
-        <v>18</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="8">
         <v>0</v>
       </c>
-      <c r="E22" s="8">
+      <c r="F22" s="8">
         <v>5</v>
       </c>
-      <c r="F22" s="8">
+      <c r="G22" s="8">
         <v>10</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
+      <c r="I22" s="7"/>
+      <c r="J22" s="8">
         <v>10</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="8">
         <v>0</v>
       </c>
-      <c r="E23" s="8">
+      <c r="F23" s="8">
         <v>5</v>
       </c>
-      <c r="F23" s="8">
+      <c r="G23" s="8">
         <v>14</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8">
+      <c r="I23" s="7"/>
+      <c r="J23" s="8">
         <v>15</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="24" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="24" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>20</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="1">
+        <v>15</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1">
-        <v>20</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="1">
-        <v>15</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/darkarts.xlsx
+++ b/CoreRulebook/Data/darkarts.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557F7FD8-459C-423A-BD64-87FCD6096384}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,69 +25,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="128">
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incantation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TravelType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortitude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficulty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResistDV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HigherLevel</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="139">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Incantation</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>TravelType</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Fortitude</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Proficiency</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Resist</t>
+  </si>
+  <si>
+    <t>ResistDV</t>
+  </si>
+  <si>
+    <t>Effect</t>
+  </si>
+  <si>
+    <t>HigherLevel</t>
   </si>
   <si>
     <t xml:space="preserve">Blight </t>
   </si>
   <si>
-    <t xml:space="preserve">thanatos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sickly-green shockwave</t>
+    <t>thanatos</t>
+  </si>
+  <si>
+    <t>Instant</t>
+  </si>
+  <si>
+    <t>Sickly-green shockwave</t>
   </si>
   <si>
     <t xml:space="preserve">EVL </t>
   </si>
   <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A cylinder of necrotic energy extends outwards from you in a radius of 10m (doubled with every PP, max 1km). All simple plants within range die instantly, and all other living beings take 1d4 necrotic damage (+1 per PP)</t>
+    <t>s</t>
+  </si>
+  <si>
+    <t>A cylinder of necrotic energy extends outwards from you in a radius of 10m (doubled with every PP, max 1km). All simple plants within range die instantly, and all other living beings take 1d4 necrotic damage (+1 per PP)</t>
   </si>
   <si>
     <r>
@@ -92,7 +97,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">An adept level caster may add an extra d4 of damage for every 4 character levels above 2</t>
+      <t>An adept level caster may add an extra d4 of damage for every 4 character levels above 2</t>
     </r>
     <r>
       <rPr>
@@ -102,42 +107,42 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">nd.</t>
+      <t>nd.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Eldritch Knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vetitum scenticus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (3 turns)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow-black aura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arcane</t>
+    <t>Eldritch Knowledge</t>
+  </si>
+  <si>
+    <t>vetitum scenticus</t>
+  </si>
+  <si>
+    <t>Ritual (3 turns)</t>
+  </si>
+  <si>
+    <t>Yellow-black aura</t>
+  </si>
+  <si>
+    <t>EVL</t>
+  </si>
+  <si>
+    <t>Arcane</t>
   </si>
   <si>
     <t xml:space="preserve">Attune your mind to the Eldritch Domains. The Demons of the Deep will answer one of your questions, but the answers might drive you mad.
 The question must be said out loud for all to hear, but the answer may be written down and passed to your privately. </t>
   </si>
   <si>
-    <t xml:space="preserve">Shadow Blast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malusangui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POW</t>
+    <t>Shadow Blast</t>
+  </si>
+  <si>
+    <t>malusangui</t>
+  </si>
+  <si>
+    <t>Black bolt</t>
+  </si>
+  <si>
+    <t>POW</t>
   </si>
   <si>
     <t xml:space="preserve">Hurl shadows at you enemy, dealing 1 necrotic damage for every casting point over the difficulty level. </t>
@@ -146,28 +151,28 @@
     <t xml:space="preserve">An novice-level caster does 2 extra points for each point that the CV exceeds the DV, and an Expert-level caster does 4 extra. </t>
   </si>
   <si>
-    <t xml:space="preserve">Shroud of Darkness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tenebrosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extinguish all light within a (10 + 2$\times$PP) metre radius, and all attempts to create new light fail, unless caster\apos{} passive POW check exceds the casting check.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vicious Slash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sectumsempra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red slash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gouges at the target, leaving deep, cursed wounds, for 1d6 points of slashing damage.</t>
+    <t>Shroud of Darkness</t>
+  </si>
+  <si>
+    <t>tenebrosa</t>
+  </si>
+  <si>
+    <t>2 minutes</t>
+  </si>
+  <si>
+    <t>Extinguish all light within a (10 + 2$\times$PP) metre radius, and all attempts to create new light fail, unless caster\apos{} passive POW check exceds the casting check.</t>
+  </si>
+  <si>
+    <t>Vicious Slash</t>
+  </si>
+  <si>
+    <t>sectumsempra</t>
+  </si>
+  <si>
+    <t>Red slash</t>
+  </si>
+  <si>
+    <t>Gouges at the target, leaving deep, cursed wounds, for 1d6 points of slashing damage.</t>
   </si>
   <si>
     <r>
@@ -177,7 +182,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">At 8</t>
+      <t>At 8</t>
     </r>
     <r>
       <rPr>
@@ -187,7 +192,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -206,7 +211,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -215,7 +220,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, use 4d6, and at 20</t>
+      <t>, use 4d6, and at 20</t>
     </r>
     <r>
       <rPr>
@@ -225,7 +230,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -238,31 +243,31 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Contagion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vastantes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sickly-green rays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If target fails an ATH (health) Resist check against the casting check, contracts a disease. All positive modifiers and proficiency bonuses are set to zero until cured. Disease is contagious and each time they touch an afflicted individual, being must Resist, or contract the disease also.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When cast by an Expert-level caster, all positive bonuses etc. are set to -2 for the duration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dark Healing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tenebrosa sudarium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black rays</t>
+    <t>Contagion</t>
+  </si>
+  <si>
+    <t>vastantes</t>
+  </si>
+  <si>
+    <t>Sickly-green rays</t>
+  </si>
+  <si>
+    <t>2 weeks</t>
+  </si>
+  <si>
+    <t>If target fails an ATH (health) Resist check against the casting check, contracts a disease. All positive modifiers and proficiency bonuses are set to zero until cured. Disease is contagious and each time they touch an afflicted individual, being must Resist, or contract the disease also.</t>
+  </si>
+  <si>
+    <t>When cast by an Expert-level caster, all positive bonuses etc. are set to -2 for the duration.</t>
+  </si>
+  <si>
+    <t>Dark Healing</t>
+  </si>
+  <si>
+    <t>tenebrosa sudarium</t>
+  </si>
+  <si>
+    <t>Black rays</t>
   </si>
   <si>
     <t xml:space="preserve">POW </t>
@@ -271,157 +276,157 @@
     <t xml:space="preserve">Heal for one HP for each casting point over the difficulty. Remove half of the restored HP from an ally. </t>
   </si>
   <si>
-    <t xml:space="preserve">Incomprehensible Torture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crucio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concentration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaos</t>
+    <t>Incomprehensible Torture</t>
+  </si>
+  <si>
+    <t>Crucio</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Chaos</t>
   </si>
   <si>
     <t xml:space="preserve">Causes immense pain to the target, paralysing them whilst the spell is cast. 
 Does (PP)d4 psychic damage per turn. </t>
   </si>
   <si>
-    <t xml:space="preserve">When cast by an expert-level caster, act as if 5 PP have been donated during the attack-roll phase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instil Terror</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intimidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Target performs a SPR (endurance) Resist check, if the check is less than the casting check, the target acquires the {\it Terrified} status.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necrosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carnes mortis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sickly-green bolt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do 1d4 necrotic damage plus an additional 1d4 \cvdv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plague of Insects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prorepere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summon a swarm of insects from the ground. Insect plague covers area of 2m radius, doubling with each PP (max 32 metres). All targets in radius must perform an evasion check, or take 1d4 poison damage and 1d4 piercing damage until they escape the area.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summon Void</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inanis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 minute</t>
+    <t>When cast by an expert-level caster, act as if 5 PP have been donated during the attack-roll phase</t>
+  </si>
+  <si>
+    <t>Instil Terror</t>
+  </si>
+  <si>
+    <t>timeant</t>
+  </si>
+  <si>
+    <t>4 minutes</t>
+  </si>
+  <si>
+    <t>CHR</t>
+  </si>
+  <si>
+    <t>Intimidation</t>
+  </si>
+  <si>
+    <t>Target performs a SPR (endurance) Resist check, if the check is less than the casting check, the target acquires the {\it Terrified} status.</t>
+  </si>
+  <si>
+    <t>Necrosis</t>
+  </si>
+  <si>
+    <t>carnes mortis</t>
+  </si>
+  <si>
+    <t>Sickly-green bolt</t>
+  </si>
+  <si>
+    <t>Do 1d4 necrotic damage plus an additional 1d4 \cvdv</t>
+  </si>
+  <si>
+    <t>Plague of Insects</t>
+  </si>
+  <si>
+    <t>prorepere</t>
+  </si>
+  <si>
+    <t>5 minutes</t>
+  </si>
+  <si>
+    <t>Summon a swarm of insects from the ground. Insect plague covers area of 2m radius, doubling with each PP (max 32 metres). All targets in radius must perform an evasion check, or take 1d4 poison damage and 1d4 piercing damage until they escape the area.</t>
+  </si>
+  <si>
+    <t>Summon Void</t>
+  </si>
+  <si>
+    <t>inanis</t>
+  </si>
+  <si>
+    <t>1 minute</t>
   </si>
   <si>
     <t xml:space="preserve">Summon a true Void anywhere within 15m of your current position, a gap in the fabric of reality that attracts all objects within a 5m radius. Everything in radius must perform an ATH(Strength) Resist against the casting check to grab onto something. </t>
   </si>
   <si>
-    <t xml:space="preserve">Abyssal Fluid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sucus infernum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black jet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 turns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pencil-thin jet of inky black fluid emerges from the end of your wand for as long as concentration is maintained, reaching up to 5m away. All targets touched by the fluid take 2d4 acid damage for 2 turns.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A master-level caster may expand the jet into a cone, and add an extra 2d4 to the damage check for every three character levels over level 10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiendfyre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pyrkagius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 hour</t>
+    <t>Abyssal Fluid</t>
+  </si>
+  <si>
+    <t>sucus infernum</t>
+  </si>
+  <si>
+    <t>Black jet</t>
+  </si>
+  <si>
+    <t>2 turns</t>
+  </si>
+  <si>
+    <t>A pencil-thin jet of inky black fluid emerges from the end of your wand for as long as concentration is maintained, reaching up to 5m away. All targets touched by the fluid take 2d4 acid damage for 2 turns.</t>
+  </si>
+  <si>
+    <t>A master-level caster may expand the jet into a cone, and add an extra 2d4 to the damage check for every three character levels over level 10.</t>
+  </si>
+  <si>
+    <t>Fiendfyre</t>
+  </si>
+  <si>
+    <t>pyrkagius</t>
+  </si>
+  <si>
+    <t>1 hour</t>
   </si>
   <si>
     <t xml:space="preserve">Summons a cursed fire that consumes everything that it touches, does 1d8 fire damage to all it touches, and will actively seek out targets. 
 Attempts to extinguish the fiendfyre must defeat a SPR Resist check against the casting check </t>
   </si>
   <si>
-    <t xml:space="preserve">When cast by a Master-level caster, fiendfyre does 2d8 extra fire damage, and extinguishing checks take a 2-point penalty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summon Living Shadow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viven umbrafors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3+PP) turns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bring the very shadows to life: a being of pure darkness will stalk your enemies, attacking them whenever they stray near the shadows, doing (1+PP)d10 worth of necrotic damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood Barrier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confusangui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (8 turns)</t>
+    <t>When cast by a Master-level caster, fiendfyre does 2d8 extra fire damage, and extinguishing checks take a 2-point penalty.</t>
+  </si>
+  <si>
+    <t>Summon Living Shadow</t>
+  </si>
+  <si>
+    <t>viven umbrafors</t>
+  </si>
+  <si>
+    <t>(3+PP) turns</t>
+  </si>
+  <si>
+    <t>Bring the very shadows to life: a being of pure darkness will stalk your enemies, attacking them whenever they stray near the shadows, doing (1+PP)d10 worth of necrotic damage.</t>
+  </si>
+  <si>
+    <t>Blood Barrier</t>
+  </si>
+  <si>
+    <t>confusangui</t>
+  </si>
+  <si>
+    <t>Ritual (8 turns)</t>
   </si>
   <si>
     <t xml:space="preserve">Use blood to draw warding runes onto an object or person. Erects a swirling red magical barrier with AC 10, plus 5 for every casting point over the difficulty. Barrier blocks all physical and magical damage and is immune to acid erosion, but is eroded by holy damage. 
 Each individual{\apos}s blood can only be used once for blood magic.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Create Thrall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imperius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persuasion</t>
+    <t>Create Thrall</t>
+  </si>
+  <si>
+    <t>Imperius</t>
+  </si>
+  <si>
+    <t>Persuasion</t>
   </si>
   <si>
     <t xml:space="preserve">If the target fails a resist magic check against the casting check, the target is placed under the complete control of the caster until concentration is broken. </t>
   </si>
   <si>
-    <t xml:space="preserve">Create Zombie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inferi exorior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (5 minutes)</t>
+    <t>Create Zombie</t>
+  </si>
+  <si>
+    <t>inferi exorior</t>
+  </si>
+  <si>
+    <t>Ritual (5 minutes)</t>
   </si>
   <si>
     <t xml:space="preserve">Breathes unlife into dead bodies, and turns them into ghastly puppets, performing your every whim: the inferi. Inferi act as golems, obeying every word of their creator. </t>
@@ -434,7 +439,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">When cast by a Master-level caster greater than 15</t>
+      <t>When cast by a Master-level caster greater than 15</t>
     </r>
     <r>
       <rPr>
@@ -444,7 +449,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -457,51 +462,51 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Chaos Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chaomal portis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2+PP) turns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open a small portal to Pand{\ae}monium, the Chaos Realm at your current location. For every turn that the portal remains open, it casts random Dark Magic at all targets outside a 2m radius of the caster. These spells increase in power as the portal remains open.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create Horcrux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pervinco mortis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (1 day)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The caster places a portion of their soul into another object. Write down the horcrux on a piece of paper and keep it hidden. 
+    <t>Chaos Magic</t>
+  </si>
+  <si>
+    <t>chaomal portis</t>
+  </si>
+  <si>
+    <t>(2+PP) turns</t>
+  </si>
+  <si>
+    <t>Open a small portal to Pand{\ae}monium, the Chaos Realm at your current location. For every turn that the portal remains open, it casts random Dark Magic at all targets outside a 2m radius of the caster. These spells increase in power as the portal remains open.</t>
+  </si>
+  <si>
+    <t>Create Horcrux</t>
+  </si>
+  <si>
+    <t>pervinco mortis</t>
+  </si>
+  <si>
+    <t>Ritual (1 day)</t>
+  </si>
+  <si>
+    <t>The caster places a portion of their soul into another object. Write down the horcrux on a piece of paper and keep it hidden. 
 Whilst a horcrux exists, the character cannot be killed, however creating a Horcrux reduces all casting checks by 2 for each horcrux that is created.  
 Can only be cast if the caster has murdered an innocent in cold blood.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kill Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avada kedavra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green bolt</t>
+    <t>Kill Target</t>
+  </si>
+  <si>
+    <t>avada kedavra</t>
+  </si>
+  <si>
+    <t>Green bolt</t>
   </si>
   <si>
     <t xml:space="preserve">If the spell makes contact with the target, kills them instantly. There is no countercurse. </t>
   </si>
   <si>
-    <t xml:space="preserve">Soul Snare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nerco decipula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black aura</t>
+    <t>Soul Snare</t>
+  </si>
+  <si>
+    <t>nerco decipula</t>
+  </si>
+  <si>
+    <t>Black aura</t>
   </si>
   <si>
     <t xml:space="preserve">Capture the soul of a recently killed enemy. 
@@ -509,49 +514,65 @@
 Only one soul may be trapped at any given, and no power points may be dedicated to the instant-casting. </t>
   </si>
   <si>
-    <t xml:space="preserve">Universal Tear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ostium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ritual (1 week)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Searing white flash</t>
+    <t>Universal Tear</t>
+  </si>
+  <si>
+    <t>ostium</t>
+  </si>
+  <si>
+    <t>Ritual (1 week)</t>
+  </si>
+  <si>
+    <t>Searing white flash</t>
   </si>
   <si>
     <t xml:space="preserve">Punch a hole in the fabric of reality, and establish a portal to one of the Higher Planes. This portal takes the form of a shimmering door. Stepping through the door takes you to the chosen Plane. </t>
+  </si>
+  <si>
+    <t>Fury\apos{}s Fire</t>
+  </si>
+  <si>
+    <t>Red Fireball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When cast by a Veela greater than 10th level, use a d8 dice for the damage check. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{\bf This spell can only be cast by a Veela when in their Fury-form. It cannot be learned by non-Veela.}
+A will-sapping fireball hurled by a Veela or their half-human brood. On contact ignites the target for (1+PP)d6 fire damage for the duration of the spell. The affected target must use one dice smaller for Resist checks than their usual dice for the next 5 turns.  </t>
+  </si>
+  <si>
+    <t>Silver Glow</t>
+  </si>
+  <si>
+    <t>lupis lunis</t>
+  </si>
+  <si>
+    <t>False Moon</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>Willpower</t>
+  </si>
+  <si>
+    <t>If the spell is maintained on a targeted werewolf for 3 consecutive turns, they enter their wolf-form for 1 hour.</t>
+  </si>
+  <si>
+    <t>When cast by a character greater than 15th level, the spell works after only 1 turn.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -576,14 +597,14 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -598,7 +619,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -613,7 +634,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="hair">
         <color rgb="FF999999"/>
       </left>
@@ -625,93 +646,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -770,41 +749,348 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:N24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="27.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="92.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="36.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="8.71"/>
+    <col min="1" max="2" width="28" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="8.7109375" style="1"/>
+    <col min="9" max="9" width="9.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="1"/>
+    <col min="11" max="12" width="15.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="92.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="36.42578125" style="1" customWidth="1"/>
+    <col min="15" max="1025" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -848,7 +1134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:14" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -861,20 +1147,20 @@
       <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="5">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="5">
         <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="5"/>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="5">
         <v>5</v>
       </c>
       <c r="K2" s="5" t="s">
@@ -890,7 +1176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:14" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
@@ -903,13 +1189,13 @@
       <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="8">
         <v>0</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="8">
         <v>6</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -918,7 +1204,7 @@
       <c r="I3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="J3" s="8">
         <v>3</v>
       </c>
       <c r="K3" s="8"/>
@@ -927,7 +1213,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -940,20 +1226,20 @@
       <c r="D4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="8">
         <v>0</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="8">
         <v>1</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="8">
         <v>3</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="8" t="n">
+      <c r="J4" s="8">
         <v>2</v>
       </c>
       <c r="K4" s="8"/>
@@ -965,7 +1251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:14" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>35</v>
       </c>
@@ -979,17 +1265,17 @@
       <c r="E5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="10">
         <v>1</v>
       </c>
-      <c r="G5" s="10" t="n">
+      <c r="G5" s="10">
         <v>4</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="9"/>
-      <c r="J5" s="10" t="n">
+      <c r="J5" s="10">
         <v>4</v>
       </c>
       <c r="K5" s="10"/>
@@ -998,7 +1284,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>39</v>
       </c>
@@ -1011,20 +1297,20 @@
       <c r="D6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="8">
         <v>1</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="8">
         <v>4</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="8" t="n">
+      <c r="J6" s="8">
         <v>4</v>
       </c>
       <c r="K6" s="8"/>
@@ -1036,7 +1322,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
@@ -1052,17 +1338,17 @@
       <c r="E7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="5">
         <v>6</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="5">
         <v>6</v>
       </c>
       <c r="K7" s="5"/>
@@ -1074,7 +1360,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>50</v>
       </c>
@@ -1087,20 +1373,20 @@
       <c r="D8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="10">
         <v>2</v>
       </c>
-      <c r="G8" s="10" t="n">
+      <c r="G8" s="10">
         <v>6</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>53</v>
       </c>
       <c r="I8" s="9"/>
-      <c r="J8" s="10" t="n">
+      <c r="J8" s="10">
         <v>5</v>
       </c>
       <c r="K8" s="10"/>
@@ -1109,7 +1395,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:14" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>55</v>
       </c>
@@ -1120,13 +1406,13 @@
         <v>57</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="10">
         <v>0</v>
       </c>
-      <c r="F9" s="12" t="n">
+      <c r="F9" s="12">
         <v>2</v>
       </c>
-      <c r="G9" s="12" t="n">
+      <c r="G9" s="12">
         <v>8</v>
       </c>
       <c r="H9" s="11" t="s">
@@ -1135,7 +1421,7 @@
       <c r="I9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="12" t="n">
+      <c r="J9" s="12">
         <v>6</v>
       </c>
       <c r="K9" s="12"/>
@@ -1147,7 +1433,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>61</v>
       </c>
@@ -1161,10 +1447,10 @@
       <c r="E10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="8">
         <v>2</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="8">
         <v>5</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -1173,7 +1459,7 @@
       <c r="I10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="8" t="n">
+      <c r="J10" s="8">
         <v>6</v>
       </c>
       <c r="K10" s="8"/>
@@ -1182,7 +1468,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>67</v>
       </c>
@@ -1195,13 +1481,13 @@
       <c r="D11" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="8">
         <v>0</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="8">
         <v>2</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="8">
         <v>6</v>
       </c>
       <c r="H11" s="8" t="s">
@@ -1210,7 +1496,7 @@
       <c r="I11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="8" t="n">
+      <c r="J11" s="8">
         <v>7</v>
       </c>
       <c r="K11" s="8"/>
@@ -1219,7 +1505,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:14" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>71</v>
       </c>
@@ -1233,17 +1519,17 @@
       <c r="E12" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="8">
         <v>3</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="8">
         <v>4</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="8" t="n">
+      <c r="J12" s="8">
         <v>5</v>
       </c>
       <c r="K12" s="8"/>
@@ -1252,7 +1538,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:14" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>75</v>
       </c>
@@ -1266,10 +1552,10 @@
       <c r="E13" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="12">
         <v>2</v>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G13" s="12">
         <v>8</v>
       </c>
       <c r="H13" s="11" t="s">
@@ -1278,7 +1564,7 @@
       <c r="I13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="12" t="n">
+      <c r="J13" s="12">
         <v>7</v>
       </c>
       <c r="K13" s="12"/>
@@ -1287,7 +1573,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:14" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>79</v>
       </c>
@@ -1303,10 +1589,10 @@
       <c r="E14" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="8">
         <v>2</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="8">
         <v>3</v>
       </c>
       <c r="H14" s="8" t="s">
@@ -1315,7 +1601,7 @@
       <c r="I14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="8" t="n">
+      <c r="J14" s="8">
         <v>3</v>
       </c>
       <c r="K14" s="8"/>
@@ -1327,7 +1613,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>85</v>
       </c>
@@ -1341,17 +1627,17 @@
       <c r="E15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="8">
         <v>3</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="8">
         <v>8</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="8" t="n">
+      <c r="J15" s="8">
         <v>8</v>
       </c>
       <c r="K15" s="8"/>
@@ -1363,7 +1649,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:14" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>90</v>
       </c>
@@ -1377,10 +1663,10 @@
       <c r="E16" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="8">
         <v>3</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="8">
         <v>8</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -1389,7 +1675,7 @@
       <c r="I16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="8" t="n">
+      <c r="J16" s="8">
         <v>9</v>
       </c>
       <c r="K16" s="8"/>
@@ -1398,7 +1684,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>94</v>
       </c>
@@ -1409,20 +1695,20 @@
         <v>96</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="10" t="n">
+      <c r="E17" s="10">
         <v>0</v>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="F17" s="12">
         <v>4</v>
       </c>
-      <c r="G17" s="12" t="n">
+      <c r="G17" s="12">
         <v>5</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>26</v>
       </c>
       <c r="I17" s="11"/>
-      <c r="J17" s="12" t="n">
+      <c r="J17" s="12">
         <v>8</v>
       </c>
       <c r="K17" s="12"/>
@@ -1431,7 +1717,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:14" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>98</v>
       </c>
@@ -1442,13 +1728,13 @@
         <v>57</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="8">
         <v>0</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="8">
         <v>4</v>
       </c>
-      <c r="G18" s="8" t="n">
+      <c r="G18" s="8">
         <v>11</v>
       </c>
       <c r="H18" s="7" t="s">
@@ -1457,7 +1743,7 @@
       <c r="I18" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="J18" s="8" t="n">
+      <c r="J18" s="8">
         <v>9</v>
       </c>
       <c r="K18" s="8"/>
@@ -1466,7 +1752,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:14" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>102</v>
       </c>
@@ -1477,20 +1763,20 @@
         <v>104</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="8" t="n">
+      <c r="E19" s="8">
         <v>0</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="8">
         <v>4</v>
       </c>
-      <c r="G19" s="8" t="n">
+      <c r="G19" s="8">
         <v>10</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>64</v>
       </c>
       <c r="I19" s="7"/>
-      <c r="J19" s="8" t="n">
+      <c r="J19" s="8">
         <v>10</v>
       </c>
       <c r="K19" s="8"/>
@@ -1502,7 +1788,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:14" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>107</v>
       </c>
@@ -1516,10 +1802,10 @@
       <c r="E20" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="8">
         <v>5</v>
       </c>
-      <c r="G20" s="8" t="n">
+      <c r="G20" s="8">
         <v>20</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -1528,7 +1814,7 @@
       <c r="I20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="8" t="n">
+      <c r="J20" s="8">
         <v>15</v>
       </c>
       <c r="K20" s="8"/>
@@ -1537,7 +1823,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="50.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:14" ht="50.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>111</v>
       </c>
@@ -1548,20 +1834,20 @@
         <v>113</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="8">
         <v>0</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="8">
         <v>5</v>
       </c>
-      <c r="G21" s="8" t="n">
+      <c r="G21" s="8">
         <v>25</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I21" s="7"/>
-      <c r="J21" s="8" t="n">
+      <c r="J21" s="8">
         <v>18</v>
       </c>
       <c r="K21" s="8"/>
@@ -1570,7 +1856,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>115</v>
       </c>
@@ -1583,20 +1869,20 @@
       <c r="D22" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E22" s="8">
         <v>0</v>
       </c>
-      <c r="F22" s="8" t="n">
+      <c r="F22" s="8">
         <v>5</v>
       </c>
-      <c r="G22" s="8" t="n">
+      <c r="G22" s="8">
         <v>10</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="8" t="n">
+      <c r="J22" s="8">
         <v>10</v>
       </c>
       <c r="K22" s="8"/>
@@ -1605,7 +1891,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="41.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:14" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>119</v>
       </c>
@@ -1618,20 +1904,20 @@
       <c r="D23" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="8" t="n">
+      <c r="E23" s="8">
         <v>0</v>
       </c>
-      <c r="F23" s="8" t="n">
+      <c r="F23" s="8">
         <v>5</v>
       </c>
-      <c r="G23" s="8" t="n">
+      <c r="G23" s="8">
         <v>14</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I23" s="7"/>
-      <c r="J23" s="8" t="n">
+      <c r="J23" s="8">
         <v>15</v>
       </c>
       <c r="K23" s="8"/>
@@ -1640,7 +1926,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>123</v>
       </c>
@@ -1653,13 +1939,13 @@
       <c r="D24" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="1">
         <v>0</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="1">
         <v>5</v>
       </c>
-      <c r="G24" s="1" t="n">
+      <c r="G24" s="1">
         <v>20</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -1668,18 +1954,87 @@
       <c r="I24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="1" t="n">
+      <c r="J24" s="1">
         <v>15</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>127</v>
       </c>
     </row>
+    <row r="25" spans="1:14" ht="60" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="1">
+        <v>3</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J26" s="1">
+        <v>7</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
